--- a/requirement_definition.xlsx
+++ b/requirement_definition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
   <si>
     <r>
       <rPr>
@@ -1004,12 +1004,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
       <t>ユーザーは</t>
     </r>
     <r>
@@ -1154,8 +1148,7 @@
         <rFont val="ＭＳ ゴシック"/>
         <charset val="134"/>
       </rPr>
-      <t>できるようになり、メンバーの募集や、他チームとの交流が可能になる。
-・チーム紹介文をリッチテキスト形式で入力するためのGemとして、froalaを使用予定</t>
+      <t>できるようになり、メンバーの募集や、他チームとの交流が可能になる。</t>
     </r>
   </si>
   <si>
@@ -2475,42 +2468,7 @@
     <t>チーム紹介</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>リッチテキスト形式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> / froala / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>チーム管理者による入力</t>
-    </r>
-  </si>
-  <si>
-    <t>活動スケジュールと活動場所</t>
-  </si>
-  <si>
-    <t>schedule_and_palce</t>
-  </si>
-  <si>
-    <t>チーム管理者による入力</t>
+    <t>1000文字以内 / テキストのみ / チーム管理者による入力</t>
   </si>
   <si>
     <r>
@@ -3067,8 +3025,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -3134,17 +3092,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3162,25 +3112,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3193,9 +3143,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3214,9 +3164,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3229,9 +3194,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3245,6 +3210,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -3254,23 +3227,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3303,7 +3261,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3315,7 +3279,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3327,49 +3321,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3387,7 +3345,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3405,7 +3399,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3417,67 +3429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3755,17 +3713,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3791,30 +3767,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -3829,11 +3781,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3845,22 +3803,22 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -3869,121 +3827,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4081,7 +4039,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4260,22 +4218,22 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1905</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>445135</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>146685</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>275590</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="図形 36" descr="画面遷移図_3"/>
+        <xdr:cNvPr id="3" name="図形 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4288,14 +4246,143 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1905" y="1905"/>
-          <a:ext cx="22388830" cy="17244060"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12467590" cy="6873240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>275590</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図形 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1432560" y="6644640"/>
+          <a:ext cx="12254230" cy="5364480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>122555</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="グループ化 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1270" y="15875"/>
+          <a:ext cx="13686155" cy="12009120"/>
+          <a:chOff x="-10" y="13"/>
+          <a:chExt cx="21553" cy="18912"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="図形 4"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-10" y="13"/>
+            <a:ext cx="19633" cy="10824"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="図形 5"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2245" y="10477"/>
+            <a:ext cx="19298" cy="8448"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4303,7 +4390,7 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1905</xdr:colOff>
@@ -4311,34 +4398,161 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>128270</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>593725</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図形 13" descr="ワイヤーフレーム_3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="グループ化 7"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1905" y="495300"/>
-          <a:ext cx="12927965" cy="27942540"/>
+          <a:ext cx="9126220" cy="23027640"/>
+          <a:chOff x="-9" y="768"/>
+          <a:chExt cx="14372" cy="36264"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="7" name="グループ化 6"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="-9" y="768"/>
+            <a:ext cx="14373" cy="30480"/>
+            <a:chOff x="-10" y="768"/>
+            <a:chExt cx="14374" cy="30480"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="4" name="グループ化 3"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="-10" y="768"/>
+              <a:ext cx="12119" cy="20772"/>
+              <a:chOff x="-11" y="768"/>
+              <a:chExt cx="12120" cy="20772"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="2" name="図形 1"/>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip r:embed="rId1"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="-11" y="768"/>
+                <a:ext cx="12120" cy="10645"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="3" name="図形 2"/>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip r:embed="rId2"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5988" y="10812"/>
+                <a:ext cx="6061" cy="10729"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+          </xdr:pic>
+        </xdr:grpSp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="図形 4"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6000" y="20628"/>
+              <a:ext cx="8365" cy="10621"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="図形 5"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5988" y="30912"/>
+            <a:ext cx="5364" cy="6121"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6450,7 +6664,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7117,54 +7331,42 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="12">
+      <c r="A30" s="15">
         <v>7</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="17">
         <v>1000</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="28" t="s">
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="31" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="15">
-        <v>8</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="17">
-        <v>300</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="31" t="s">
-        <v>123</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="3"/>
@@ -7194,8 +7396,12 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="B34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -7208,10 +7414,10 @@
     <row r="35" spans="1:11">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>54</v>
+        <v>67</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -7225,10 +7431,10 @@
     <row r="36" spans="1:11">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -7241,12 +7447,8 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="3"/>
-      <c r="B37" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>124</v>
-      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -7257,141 +7459,141 @@
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
+      <c r="A38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K39" s="23" t="s">
-        <v>47</v>
-      </c>
+      <c r="A39" s="9">
+        <v>1</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="11">
+        <v>11</v>
+      </c>
+      <c r="F39" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="24"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="9">
+      <c r="A40" s="12">
+        <v>2</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="14">
+        <v>11</v>
+      </c>
+      <c r="F40" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="J40" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="15">
+        <v>3</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E41" s="17">
         <v>11</v>
       </c>
-      <c r="F40" s="11" t="b">
+      <c r="F41" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="24"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="12">
-        <v>2</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="14">
-        <v>11</v>
-      </c>
-      <c r="F41" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14" t="b">
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="J41" s="14" t="b">
+      <c r="J41" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="K41" s="26" t="s">
-        <v>127</v>
+      <c r="K41" s="32" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="15">
-        <v>3</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" s="17">
-        <v>11</v>
-      </c>
-      <c r="F42" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K42" s="32" t="s">
-        <v>127</v>
-      </c>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="3"/>
@@ -7421,8 +7623,12 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="B45" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -7435,10 +7641,10 @@
     <row r="46" spans="1:11">
       <c r="A46" s="3"/>
       <c r="B46" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>57</v>
+        <v>67</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -7452,10 +7658,10 @@
     <row r="47" spans="1:11">
       <c r="A47" s="3"/>
       <c r="B47" s="4" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -7468,12 +7674,8 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3"/>
-      <c r="B48" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>130</v>
-      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -7484,83 +7686,97 @@
       <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
+      <c r="A49" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K49" s="23" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K50" s="23" t="s">
-        <v>47</v>
-      </c>
+      <c r="A50" s="9">
+        <v>1</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="11">
+        <v>11</v>
+      </c>
+      <c r="F50" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="24"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="9">
-        <v>1</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" s="11">
-        <v>11</v>
-      </c>
-      <c r="F51" s="11" t="b">
+      <c r="A51" s="12">
+        <v>2</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F51" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="24"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="25" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>131</v>
@@ -7569,34 +7785,36 @@
         <v>132</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E52" s="14">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="F52" s="14" t="b">
         <v>0</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="25" t="s">
-        <v>133</v>
-      </c>
+      <c r="I52" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52" s="25"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="12">
-        <v>3</v>
-      </c>
-      <c r="B53" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>134</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>135</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E53" s="14">
         <v>11</v>
@@ -7615,60 +7833,44 @@
       <c r="K53" s="25"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="12">
-        <v>4</v>
-      </c>
-      <c r="B54" s="18" t="s">
+      <c r="A54" s="15">
+        <v>5</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="D54" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="D54" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E54" s="14">
-        <v>11</v>
-      </c>
-      <c r="F54" s="14" t="b">
+      <c r="E54" s="17"/>
+      <c r="F54" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K54" s="25"/>
+      <c r="G54" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="30" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="15">
-        <v>5</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G55" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="30" t="s">
-        <v>142</v>
-      </c>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="3"/>
@@ -7698,8 +7900,12 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+      <c r="B58" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -7712,10 +7918,10 @@
     <row r="59" spans="1:11">
       <c r="A59" s="3"/>
       <c r="B59" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>143</v>
+        <v>67</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -7729,10 +7935,10 @@
     <row r="60" spans="1:11">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -7745,12 +7951,8 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="3"/>
-      <c r="B61" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>144</v>
-      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -7761,141 +7963,141 @@
       <c r="K61" s="3"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
+      <c r="A62" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K62" s="23" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J63" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K63" s="23" t="s">
-        <v>47</v>
-      </c>
+      <c r="A63" s="9">
+        <v>1</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" s="11">
+        <v>11</v>
+      </c>
+      <c r="F63" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="24"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="9">
+      <c r="A64" s="12">
+        <v>2</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64" s="14">
+        <v>11</v>
+      </c>
+      <c r="F64" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D64" s="11" t="s">
+      <c r="J64" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="15">
+        <v>3</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E65" s="17">
         <v>11</v>
       </c>
-      <c r="F64" s="11" t="b">
+      <c r="F65" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="24"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="12">
-        <v>2</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E65" s="14">
-        <v>11</v>
-      </c>
-      <c r="F65" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14" t="b">
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="J65" s="14" t="b">
+      <c r="J65" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="K65" s="25" t="s">
+      <c r="K65" s="34" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="15">
-        <v>3</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E66" s="17">
-        <v>11</v>
-      </c>
-      <c r="F66" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K66" s="34" t="s">
-        <v>150</v>
-      </c>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="3"/>
@@ -7925,8 +8127,12 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+      <c r="B69" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -7939,10 +8145,10 @@
     <row r="70" spans="1:11">
       <c r="A70" s="3"/>
       <c r="B70" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -7956,10 +8162,10 @@
     <row r="71" spans="1:11">
       <c r="A71" s="3"/>
       <c r="B71" s="4" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -7972,12 +8178,8 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="3"/>
-      <c r="B72" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>151</v>
-      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -7988,141 +8190,141 @@
       <c r="K72" s="3"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
+      <c r="A73" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K73" s="23" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J74" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K74" s="23" t="s">
-        <v>47</v>
-      </c>
+      <c r="A74" s="9">
+        <v>1</v>
+      </c>
+      <c r="B74" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" s="11">
+        <v>11</v>
+      </c>
+      <c r="F74" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="9">
+      <c r="A75" s="12">
+        <v>2</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E75" s="14">
+        <v>11</v>
+      </c>
+      <c r="F75" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="B75" s="33" t="s">
+      <c r="J75" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K75" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="15">
+        <v>3</v>
+      </c>
+      <c r="B76" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C75" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E75" s="11">
+      <c r="C76" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E76" s="17">
         <v>11</v>
       </c>
-      <c r="F75" s="11" t="b">
+      <c r="F76" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="24"/>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="12">
-        <v>2</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E76" s="14">
-        <v>11</v>
-      </c>
-      <c r="F76" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14" t="b">
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="J76" s="14" t="b">
+      <c r="J76" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="K76" s="25" t="s">
+      <c r="K76" s="34" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="15">
-        <v>3</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E77" s="17">
-        <v>11</v>
-      </c>
-      <c r="F77" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K77" s="34" t="s">
-        <v>157</v>
-      </c>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="3"/>
@@ -8149,19 +8351,6 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
     </row>
   </sheetData>
   <sheetProtection password="F05A" sheet="1" selectLockedCells="1" selectUnlockedCells="1" objects="1"/>
@@ -8194,7 +8383,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N96" sqref="N96"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -8222,7 +8411,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:16">
       <c r="A1" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>

--- a/requirement_definition.xlsx
+++ b/requirement_definition.xlsx
@@ -1004,6 +1004,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザーは</t>
     </r>
     <r>
@@ -1715,7 +1721,7 @@
     <t>ユーザー間のつながり情報</t>
   </si>
   <si>
-    <t>user_relationships</t>
+    <t>relationships</t>
   </si>
   <si>
     <r>
@@ -2327,7 +2333,7 @@
     <t>ユーザーの活動したい地域</t>
   </si>
   <si>
-    <t>region</t>
+    <t>area</t>
   </si>
   <si>
     <t>ユーザーの性別</t>
@@ -3025,8 +3031,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -3092,21 +3098,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3120,7 +3112,99 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3143,92 +3227,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3261,7 +3267,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3273,19 +3363,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3297,79 +3423,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3381,61 +3435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3713,11 +3719,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3727,6 +3739,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3749,34 +3770,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3795,6 +3790,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3803,21 +3809,21 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3827,121 +3833,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4229,7 +4235,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>275590</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6951,11 +6957,9 @@
         <v>99</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="14">
-        <v>30</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>

--- a/requirement_definition.xlsx
+++ b/requirement_definition.xlsx
@@ -9,32 +9,27 @@
   </bookViews>
   <sheets>
     <sheet name="カタログ設計" sheetId="1" r:id="rId1"/>
-    <sheet name="テーブル定義1" sheetId="2" r:id="rId2"/>
-    <sheet name="テーブル定義2" sheetId="3" r:id="rId3"/>
-    <sheet name="ER図" sheetId="4" r:id="rId4"/>
-    <sheet name="画面遷移図" sheetId="5" r:id="rId5"/>
-    <sheet name="ワイヤーフレーム" sheetId="6" r:id="rId6"/>
+    <sheet name="カタログ設計変更履歴" sheetId="2" r:id="rId2"/>
+    <sheet name="テーブル定義1" sheetId="3" r:id="rId3"/>
+    <sheet name="テーブル定義2" sheetId="4" r:id="rId4"/>
+    <sheet name="ER図" sheetId="5" r:id="rId5"/>
+    <sheet name="画面遷移図" sheetId="6" r:id="rId6"/>
+    <sheet name="ワイヤーフレーム" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
-  <si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
+  <si>
+    <r>
+      <t>カタログ</t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>カタログ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
       </rPr>
@@ -52,12 +47,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
       <t>スポーツに関心のあるユーザーとスポーツ</t>
     </r>
     <r>
@@ -118,7 +107,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
+        <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -148,12 +137,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
       <t>ユーザー</t>
     </r>
     <r>
@@ -171,12 +154,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
       <t>ユーザー</t>
     </r>
     <r>
@@ -228,22 +205,133 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
+        <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-・セキュアパスワード実装のためのGemとして、bcryptを使用予定
-・プロフィール画像登録のためのGemとして、carrierwaveとmini_magickを使用予定</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・セキュアパスワード実装のための</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>として、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bcrypt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を使用予定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・プロフィール画像登録のための</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>として、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>carrierwave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mini_magick</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を使用予定</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>ユーザーログイン</t>
     </r>
     <r>
@@ -258,12 +346,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
       <t>登録</t>
     </r>
     <r>
@@ -377,12 +459,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
       <t>ユーザープロフィール</t>
     </r>
     <r>
@@ -397,12 +473,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
       <t>ユーザー</t>
     </r>
     <r>
@@ -507,12 +577,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
       <t>ユーザーフォロー</t>
     </r>
     <r>
@@ -527,12 +591,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
       <t>ユーザーは</t>
     </r>
     <r>
@@ -564,20 +622,7 @@
     </r>
   </si>
   <si>
-    <t>ユーザー検索機能</t>
-  </si>
-  <si>
-    <t>ユーザーは他のユーザーを検索することができる。
-・検索機能実装用のGemとして、ransackを使用予定</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
+    <r>
       <t>ユーザー</t>
     </r>
     <r>
@@ -587,6 +632,125 @@
         <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
       </rPr>
+      <t>検索機能</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ユーザーは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>のユーザーを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>検索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>することができる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・検索機能実装用の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>として、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ransack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を使用予定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ユーザー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
       <t>同士</t>
     </r>
     <r>
@@ -610,12 +774,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
       <t>ユーザー</t>
     </r>
     <r>
@@ -665,22 +823,128 @@
     </r>
   </si>
   <si>
-    <t>ユーザーブログ機能</t>
+    <r>
+      <t>ユーザーブログ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>機能</t>
+    </r>
   </si>
   <si>
     <t>低</t>
   </si>
   <si>
-    <t>ユーザーは自分のブログを投稿し、本アプリ上で公開することができる。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
+    <r>
+      <t>ユーザーは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>のブログを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投稿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>アプリ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公開</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>することができる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>ユーザーによるチーム</t>
     </r>
     <r>
@@ -695,12 +959,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
       <t>ユーザーは</t>
     </r>
     <r>
@@ -710,12 +968,1753 @@
         <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
       </rPr>
+      <t>登録</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チームを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>検索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>することができる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>スポーツの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>種目、活動地域等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>検索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>することができ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、関心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>のあるチームが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>見</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>つかった</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>場合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>はその</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>にメッセージを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ることができる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・検索機能実装用の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>として</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ransack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を使用予定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ユーザーによるチームの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>「気</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>になる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>」機能</t>
+    </r>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <r>
+      <t>ユーザーは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、自分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>したいと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>思</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ったり</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、気</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>になったチームを「気になる」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登録</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>することができる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ユーザーによるチーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登録機能</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ユーザーは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自身</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>するチームを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登録</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>することができる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チームを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登録</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>すると</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>のユーザーが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分のチームを検索できるようになる。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>チームプロフィール</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>機能</t>
+    </r>
+  </si>
+  <si>
+    <t>各チームはプロフィール情報を登録することができる。活動しているスポーツ種目、活動地域、メンバー数の他、テキストでのチーム紹介文を登録することができる。</t>
+  </si>
+  <si>
+    <r>
+      <t>チーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理機能</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>チーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登録</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ったユーザーはチーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>となって</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チームプロフィールの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>編集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>うことができる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チームのプロフィールページに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>として</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公開</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>されるため</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、自分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>のチームに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>関心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>をもった</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>のユーザーからチームの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>としてメッセージを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>受</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>け</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ることができる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ユーザーのチーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所属機能</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>チーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>により</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>アプリ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ユーザーは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>のチームのメンバーになることができる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>メンバーになることで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>メンバー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>けのチーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ることができるようになる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>チームのお</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>らせ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チームメンバー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>け</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）機能</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>チームメンバー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>けに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>はお</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>らせを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>発信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>することができる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>チームブログ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>機能</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>チーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、外部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>への</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>情報発信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>として</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チームとしてのブログを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投稿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、公開</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>することができる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ブログお</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>気</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>り</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登録機能</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ユーザーは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>気</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ったユーザーブログやチームブログをお</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>気</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>りとして</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登録</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>することができる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>カタログ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>設計</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>変更履歴</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以下</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>記載</t>
+    </r>
+  </si>
+  <si>
+    <t>優先度高の機能の機能説明に、優先度中や低の機能を実装しないと実現できない説明が含まれていたため、その部分を修正</t>
+  </si>
+  <si>
+    <t>項番</t>
+  </si>
+  <si>
+    <t>機能名</t>
+  </si>
+  <si>
+    <t>機能説明（変更前）</t>
+  </si>
+  <si>
+    <t>機能説明（変更後）</t>
+  </si>
+  <si>
+    <r>
+      <t>ユーザーによる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登録機能</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ユーザーは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
       <t>自分</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="ＭＳ ゴシック"/>
         <charset val="134"/>
       </rPr>
@@ -724,7 +2723,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
       </rPr>
@@ -733,7 +2732,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="ＭＳ ゴシック"/>
         <charset val="134"/>
       </rPr>
@@ -742,7 +2741,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
       </rPr>
@@ -751,7 +2750,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="ＭＳ ゴシック"/>
         <charset val="134"/>
       </rPr>
@@ -760,7 +2759,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
       </rPr>
@@ -769,7 +2768,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="ＭＳ ゴシック"/>
         <charset val="134"/>
       </rPr>
@@ -778,7 +2777,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
       </rPr>
@@ -787,7 +2786,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="ＭＳ ゴシック"/>
         <charset val="134"/>
       </rPr>
@@ -796,7 +2795,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
       </rPr>
@@ -805,7 +2804,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="ＭＳ ゴシック"/>
         <charset val="134"/>
       </rPr>
@@ -814,16 +2813,52 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>種目、活動場所等を条件に検索</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>種目、活動場所等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>検索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="ＭＳ ゴシック"/>
         <charset val="134"/>
       </rPr>
@@ -832,7 +2867,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
       </rPr>
@@ -841,28 +2876,590 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-・検索機能実装用のGemとして、ransackを使用予定</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ユーザーによるチームの「気になる」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・検索機能実装用の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>として、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ransack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を使用予定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ユーザーは登録チームを検索することができる。スポーツの種目、活動地域等を条件に検索することができ、関心のあるチームが見つかった場合はその管理者にメッセージを送ることができる。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・検索機能実装用の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>として</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ransack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を使用予定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ユーザーは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自身</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>するチームを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登録</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>することができる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チームを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登録</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>すると</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>のユーザーが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>のチームを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>検索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>できるようになり</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>メンバーの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>募集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>や</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チームとの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>になる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ユーザーは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自身</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>するチームを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登録</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>することができる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チームを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登録</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>すると</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>のユーザーが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>のチームを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>検索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>できるようになる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>チーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>プロフィール</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
       </rPr>
@@ -870,94 +3467,40 @@
     </r>
   </si>
   <si>
-    <t>中</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ユーザーは</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、自分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>が</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>したいと</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>思</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ったり</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、気</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>になったチームを「気になる」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+    <r>
+      <t>各</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チームはプロフィール</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
       </rPr>
@@ -966,7 +3509,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="ＭＳ ゴシック"/>
         <charset val="134"/>
       </rPr>
@@ -975,56 +3518,116 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ユーザーによるチーム</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登録機能</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ユーザーは</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自身</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>プロフィール</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>はチームメンバーの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>募集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>役立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>てることができる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>他、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チームメンバーへの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>情報発信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="ＭＳ ゴシック"/>
         <charset val="134"/>
       </rPr>
@@ -1033,25 +3636,66 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所属</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>するチームを</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>場</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>にすることもできる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>各</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チームはプロフィール</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
       </rPr>
@@ -1060,7 +3704,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="ＭＳ ゴシック"/>
         <charset val="134"/>
       </rPr>
@@ -1069,25 +3713,356 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。活動しているスポーツ種目、活動地域、メンバー数の他、テキストでのチーム紹介文を登録することができる。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>チーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理機能</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>特定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>のユーザーにチームの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理者権限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>えることができる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。管理者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>になると</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チームプロフィール</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>編集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>や</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チームメンバーの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>追加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>削除、管理者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>追加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>削除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>など</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>運営</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>関</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>機能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>することができる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>チームを</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+  </si>
+  <si>
+    <r>
+      <t>チーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
       </rPr>
@@ -1096,119 +4071,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>すると</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、他</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>のユーザーが</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>のチームを</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>検索</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>できるようになり、メンバーの募集や、他チームとの交流が可能になる。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>チームプロフィール</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>機能</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>各</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>チームはプロフィール</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>情報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="ＭＳ ゴシック"/>
         <charset val="134"/>
       </rPr>
@@ -1217,25 +4080,97 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登録</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>することができる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ったユーザーはチーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>となって</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チームプロフィールの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>編集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>うことができる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
       </rPr>
@@ -1244,179 +4179,21 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>プロフィール</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>情報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>はチームメンバーの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>募集</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>に</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>役立</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>てることができる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>他、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>チームメンバーへの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>情報発信</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>場</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>にすることもできる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>チーム管理機能</t>
-  </si>
-  <si>
-    <t>特定のユーザーにチームの管理者権限を与えることができる。管理者になると、チームプロフィール情報の編集や、チームメンバーの追加/削除、管理者の追加/削除など、チーム運営に関する機能を操作することができる。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ユーザーのチーム所属</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>機能</t>
-    </r>
-  </si>
-  <si>
-    <t>チーム管理者の操作により、本アプリ上で、ユーザーは特定のチームのメンバーになることができる。メンバーになることで、メンバー向けのチーム情報を得ることができるようになる。</t>
-  </si>
-  <si>
-    <t>チームのお知らせ（チームメンバー向け）機能</t>
-  </si>
-  <si>
-    <t>チームメンバー向けに、チーム管理者はお知らせを発信することができる。</t>
-  </si>
-  <si>
-    <t>チームブログ機能</t>
-  </si>
-  <si>
-    <t>チーム管理者は、外部への情報発信を目的として、チームとしてのブログを投稿し、公開することができる。</t>
-  </si>
-  <si>
-    <t>ブログお気に入り登録機能</t>
-  </si>
-  <si>
-    <t>ユーザーは気に入ったユーザーブログやチームブログをお気に入りとして登録することができる。</t>
-  </si>
-  <si>
-    <t>項番</t>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理者は、チームのプロフィールページに管理者として公開されるため、自分のチームに関心をもった他のユーザーからチームの代表としてメッセージを受け取ることができる。</t>
+    </r>
   </si>
   <si>
     <r>
@@ -3035,7 +5812,7 @@
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3076,18 +5853,20 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3096,31 +5875,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3135,29 +5899,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -3166,6 +5922,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3187,11 +5951,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3202,24 +5973,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3233,11 +6019,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -3267,7 +6065,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3279,7 +6149,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3291,7 +6185,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3309,61 +6221,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3375,73 +6239,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3719,6 +6517,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3745,54 +6591,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3809,7 +6607,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3818,13 +6616,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -3833,125 +6631,125 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4072,53 +6870,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4830,245 +7625,245 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="40"/>
+    <col min="1" max="16384" width="8.88888888888889" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="50"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="50"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="47"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="50"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="50"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="50"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="47"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="50"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="46" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="46" t="s">
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="49" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="47"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="47"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="50"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="49">
+      <c r="A13" s="51">
         <v>1</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="50" t="s">
+      <c r="B13" s="50"/>
+      <c r="C13" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
       <c r="N13" s="55" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="51"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="52" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="53"/>
@@ -5080,12 +7875,12 @@
       <c r="J14" s="53"/>
       <c r="K14" s="53"/>
       <c r="L14" s="53"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="56"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="55"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="51"/>
-      <c r="B15" s="47"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="53"/>
       <c r="D15" s="53"/>
       <c r="E15" s="53"/>
@@ -5096,12 +7891,12 @@
       <c r="J15" s="53"/>
       <c r="K15" s="53"/>
       <c r="L15" s="53"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="56"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="55"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="51"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="53"/>
       <c r="D16" s="53"/>
       <c r="E16" s="53"/>
@@ -5112,35 +7907,35 @@
       <c r="J16" s="53"/>
       <c r="K16" s="53"/>
       <c r="L16" s="53"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="56"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="55"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="49">
+      <c r="A17" s="51">
         <v>2</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="50" t="s">
+      <c r="B17" s="50"/>
+      <c r="C17" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
       <c r="N17" s="55" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="51"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="54" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="53" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="53"/>
@@ -5152,12 +7947,12 @@
       <c r="J18" s="53"/>
       <c r="K18" s="53"/>
       <c r="L18" s="53"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="56"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="55"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="51"/>
-      <c r="B19" s="47"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
       <c r="E19" s="53"/>
@@ -5168,12 +7963,12 @@
       <c r="J19" s="53"/>
       <c r="K19" s="53"/>
       <c r="L19" s="53"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="56"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="55"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="51"/>
-      <c r="B20" s="47"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
       <c r="E20" s="53"/>
@@ -5184,35 +7979,35 @@
       <c r="J20" s="53"/>
       <c r="K20" s="53"/>
       <c r="L20" s="53"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="56"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="55"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="49">
+      <c r="A21" s="51">
         <v>3</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="50" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
       <c r="N21" s="55" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="51"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="52" t="s">
+      <c r="A22" s="52"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="53" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="53"/>
@@ -5224,12 +8019,12 @@
       <c r="J22" s="53"/>
       <c r="K22" s="53"/>
       <c r="L22" s="53"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="56"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="55"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="51"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="53"/>
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
@@ -5240,12 +8035,12 @@
       <c r="J23" s="53"/>
       <c r="K23" s="53"/>
       <c r="L23" s="53"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="56"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="55"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="51"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="53"/>
       <c r="D24" s="53"/>
       <c r="E24" s="53"/>
@@ -5256,35 +8051,35 @@
       <c r="J24" s="53"/>
       <c r="K24" s="53"/>
       <c r="L24" s="53"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="56"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="55"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="49">
+      <c r="A25" s="51">
         <v>4</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="50" t="s">
+      <c r="B25" s="50"/>
+      <c r="C25" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
       <c r="N25" s="55" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="51"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="52" t="s">
+      <c r="A26" s="52"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="53" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="53"/>
@@ -5296,12 +8091,12 @@
       <c r="J26" s="53"/>
       <c r="K26" s="53"/>
       <c r="L26" s="53"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="56"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="55"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="51"/>
-      <c r="B27" s="42"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="53"/>
       <c r="D27" s="53"/>
       <c r="E27" s="53"/>
@@ -5312,12 +8107,12 @@
       <c r="J27" s="53"/>
       <c r="K27" s="53"/>
       <c r="L27" s="53"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="56"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="55"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="51"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="53"/>
       <c r="D28" s="53"/>
       <c r="E28" s="53"/>
@@ -5328,35 +8123,35 @@
       <c r="J28" s="53"/>
       <c r="K28" s="53"/>
       <c r="L28" s="53"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="56"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="55"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="49">
+      <c r="A29" s="51">
         <v>5</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="50" t="s">
+      <c r="B29" s="50"/>
+      <c r="C29" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
       <c r="N29" s="55" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="51"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="52" t="s">
+      <c r="A30" s="52"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="53"/>
@@ -5368,12 +8163,12 @@
       <c r="J30" s="53"/>
       <c r="K30" s="53"/>
       <c r="L30" s="53"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="56"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="55"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="51"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="53"/>
       <c r="D31" s="53"/>
       <c r="E31" s="53"/>
@@ -5384,12 +8179,12 @@
       <c r="J31" s="53"/>
       <c r="K31" s="53"/>
       <c r="L31" s="53"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="56"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="55"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="51"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="53"/>
       <c r="D32" s="53"/>
       <c r="E32" s="53"/>
@@ -5400,36 +8195,36 @@
       <c r="J32" s="53"/>
       <c r="K32" s="53"/>
       <c r="L32" s="53"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="56"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="55"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="49">
+      <c r="A33" s="51">
         <f>A29+1</f>
         <v>6</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="50" t="s">
+      <c r="B33" s="47"/>
+      <c r="C33" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
       <c r="N33" s="55" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="51"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="52" t="s">
+      <c r="A34" s="52"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="53" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="53"/>
@@ -5441,12 +8236,12 @@
       <c r="J34" s="53"/>
       <c r="K34" s="53"/>
       <c r="L34" s="53"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="56"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="55"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="51"/>
-      <c r="B35" s="42"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
       <c r="E35" s="53"/>
@@ -5457,12 +8252,12 @@
       <c r="J35" s="53"/>
       <c r="K35" s="53"/>
       <c r="L35" s="53"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="56"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="55"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="51"/>
-      <c r="B36" s="42"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="53"/>
       <c r="D36" s="53"/>
       <c r="E36" s="53"/>
@@ -5473,36 +8268,36 @@
       <c r="J36" s="53"/>
       <c r="K36" s="53"/>
       <c r="L36" s="53"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="56"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="55"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="49">
+      <c r="A37" s="51">
         <f>A33+1</f>
         <v>7</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="50" t="s">
+      <c r="B37" s="47"/>
+      <c r="C37" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
       <c r="N37" s="55" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="51"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="52" t="s">
+      <c r="A38" s="52"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="53" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="53"/>
@@ -5514,12 +8309,12 @@
       <c r="J38" s="53"/>
       <c r="K38" s="53"/>
       <c r="L38" s="53"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="56"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="55"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="51"/>
-      <c r="B39" s="42"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="53"/>
       <c r="D39" s="53"/>
       <c r="E39" s="53"/>
@@ -5530,12 +8325,12 @@
       <c r="J39" s="53"/>
       <c r="K39" s="53"/>
       <c r="L39" s="53"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="56"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="55"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="51"/>
-      <c r="B40" s="42"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="53"/>
       <c r="D40" s="53"/>
       <c r="E40" s="53"/>
@@ -5546,36 +8341,36 @@
       <c r="J40" s="53"/>
       <c r="K40" s="53"/>
       <c r="L40" s="53"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="56"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="55"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="49">
+      <c r="A41" s="51">
         <f>A37+1</f>
         <v>8</v>
       </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="50" t="s">
+      <c r="B41" s="47"/>
+      <c r="C41" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
       <c r="N41" s="55" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="51"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="52" t="s">
+      <c r="A42" s="52"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="54" t="s">
         <v>26</v>
       </c>
       <c r="D42" s="53"/>
@@ -5587,12 +8382,12 @@
       <c r="J42" s="53"/>
       <c r="K42" s="53"/>
       <c r="L42" s="53"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="56"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="55"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="51"/>
-      <c r="B43" s="42"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="47"/>
       <c r="C43" s="53"/>
       <c r="D43" s="53"/>
       <c r="E43" s="53"/>
@@ -5603,12 +8398,12 @@
       <c r="J43" s="53"/>
       <c r="K43" s="53"/>
       <c r="L43" s="53"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="56"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="55"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="51"/>
-      <c r="B44" s="42"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="53"/>
       <c r="D44" s="53"/>
       <c r="E44" s="53"/>
@@ -5619,36 +8414,36 @@
       <c r="J44" s="53"/>
       <c r="K44" s="53"/>
       <c r="L44" s="53"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="56"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="55"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="49">
+      <c r="A45" s="51">
         <f>A41+1</f>
         <v>9</v>
       </c>
-      <c r="B45" s="42"/>
-      <c r="C45" s="50" t="s">
+      <c r="B45" s="47"/>
+      <c r="C45" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
       <c r="N45" s="55" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="51"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="52" t="s">
+      <c r="A46" s="52"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D46" s="53"/>
@@ -5660,12 +8455,12 @@
       <c r="J46" s="53"/>
       <c r="K46" s="53"/>
       <c r="L46" s="53"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="56"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="55"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="51"/>
-      <c r="B47" s="42"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="53"/>
       <c r="D47" s="53"/>
       <c r="E47" s="53"/>
@@ -5676,12 +8471,12 @@
       <c r="J47" s="53"/>
       <c r="K47" s="53"/>
       <c r="L47" s="53"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="56"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="55"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="51"/>
-      <c r="B48" s="42"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="47"/>
       <c r="C48" s="53"/>
       <c r="D48" s="53"/>
       <c r="E48" s="53"/>
@@ -5692,36 +8487,36 @@
       <c r="J48" s="53"/>
       <c r="K48" s="53"/>
       <c r="L48" s="53"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="56"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="55"/>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="49">
+      <c r="A49" s="51">
         <f>A45+1</f>
         <v>10</v>
       </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="50" t="s">
+      <c r="B49" s="47"/>
+      <c r="C49" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="42"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
       <c r="N49" s="55" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="51"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="52" t="s">
+      <c r="A50" s="52"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="53" t="s">
         <v>31</v>
       </c>
       <c r="D50" s="53"/>
@@ -5733,12 +8528,12 @@
       <c r="J50" s="53"/>
       <c r="K50" s="53"/>
       <c r="L50" s="53"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="56"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="55"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="51"/>
-      <c r="B51" s="42"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="47"/>
       <c r="C51" s="53"/>
       <c r="D51" s="53"/>
       <c r="E51" s="53"/>
@@ -5749,12 +8544,12 @@
       <c r="J51" s="53"/>
       <c r="K51" s="53"/>
       <c r="L51" s="53"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="56"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="55"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="51"/>
-      <c r="B52" s="42"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="47"/>
       <c r="C52" s="53"/>
       <c r="D52" s="53"/>
       <c r="E52" s="53"/>
@@ -5765,36 +8560,36 @@
       <c r="J52" s="53"/>
       <c r="K52" s="53"/>
       <c r="L52" s="53"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="56"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="55"/>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="49">
+      <c r="A53" s="51">
         <f>A49+1</f>
         <v>11</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="50" t="s">
+      <c r="B53" s="50"/>
+      <c r="C53" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="42"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
       <c r="N53" s="55" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="51"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="54" t="s">
+      <c r="A54" s="52"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="53" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="53"/>
@@ -5806,12 +8601,12 @@
       <c r="J54" s="53"/>
       <c r="K54" s="53"/>
       <c r="L54" s="53"/>
-      <c r="M54" s="42"/>
-      <c r="N54" s="56"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="55"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="51"/>
-      <c r="B55" s="47"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="53"/>
       <c r="D55" s="53"/>
       <c r="E55" s="53"/>
@@ -5822,12 +8617,12 @@
       <c r="J55" s="53"/>
       <c r="K55" s="53"/>
       <c r="L55" s="53"/>
-      <c r="M55" s="42"/>
-      <c r="N55" s="56"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="55"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="51"/>
-      <c r="B56" s="47"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="50"/>
       <c r="C56" s="53"/>
       <c r="D56" s="53"/>
       <c r="E56" s="53"/>
@@ -5838,36 +8633,36 @@
       <c r="J56" s="53"/>
       <c r="K56" s="53"/>
       <c r="L56" s="53"/>
-      <c r="M56" s="42"/>
-      <c r="N56" s="56"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="55"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="49">
+      <c r="A57" s="51">
         <f>A53+1</f>
         <v>12</v>
       </c>
-      <c r="B57" s="47"/>
-      <c r="C57" s="50" t="s">
+      <c r="B57" s="50"/>
+      <c r="C57" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="42"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
       <c r="N57" s="55" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="51"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="52" t="s">
+      <c r="A58" s="52"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="54" t="s">
         <v>35</v>
       </c>
       <c r="D58" s="53"/>
@@ -5879,12 +8674,12 @@
       <c r="J58" s="53"/>
       <c r="K58" s="53"/>
       <c r="L58" s="53"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="56"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="55"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="51"/>
-      <c r="B59" s="47"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="50"/>
       <c r="C59" s="53"/>
       <c r="D59" s="53"/>
       <c r="E59" s="53"/>
@@ -5895,12 +8690,12 @@
       <c r="J59" s="53"/>
       <c r="K59" s="53"/>
       <c r="L59" s="53"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="56"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="55"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="51"/>
-      <c r="B60" s="47"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="53"/>
       <c r="D60" s="53"/>
       <c r="E60" s="53"/>
@@ -5911,36 +8706,36 @@
       <c r="J60" s="53"/>
       <c r="K60" s="53"/>
       <c r="L60" s="53"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="56"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="55"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="49">
+      <c r="A61" s="51">
         <f>A57+1</f>
         <v>13</v>
       </c>
-      <c r="B61" s="47"/>
-      <c r="C61" s="50" t="s">
+      <c r="B61" s="50"/>
+      <c r="C61" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="42"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="47"/>
       <c r="N61" s="55" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="51"/>
-      <c r="B62" s="47"/>
-      <c r="C62" s="52" t="s">
+      <c r="A62" s="52"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="53" t="s">
         <v>37</v>
       </c>
       <c r="D62" s="53"/>
@@ -5952,12 +8747,12 @@
       <c r="J62" s="53"/>
       <c r="K62" s="53"/>
       <c r="L62" s="53"/>
-      <c r="M62" s="42"/>
-      <c r="N62" s="56"/>
+      <c r="M62" s="47"/>
+      <c r="N62" s="55"/>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="51"/>
-      <c r="B63" s="47"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="50"/>
       <c r="C63" s="53"/>
       <c r="D63" s="53"/>
       <c r="E63" s="53"/>
@@ -5968,12 +8763,12 @@
       <c r="J63" s="53"/>
       <c r="K63" s="53"/>
       <c r="L63" s="53"/>
-      <c r="M63" s="42"/>
-      <c r="N63" s="56"/>
+      <c r="M63" s="47"/>
+      <c r="N63" s="55"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="51"/>
-      <c r="B64" s="47"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="50"/>
       <c r="C64" s="53"/>
       <c r="D64" s="53"/>
       <c r="E64" s="53"/>
@@ -5984,36 +8779,36 @@
       <c r="J64" s="53"/>
       <c r="K64" s="53"/>
       <c r="L64" s="53"/>
-      <c r="M64" s="42"/>
-      <c r="N64" s="56"/>
+      <c r="M64" s="47"/>
+      <c r="N64" s="55"/>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="49">
+      <c r="A65" s="51">
         <f>A61+1</f>
         <v>14</v>
       </c>
-      <c r="B65" s="47"/>
-      <c r="C65" s="50" t="s">
+      <c r="B65" s="50"/>
+      <c r="C65" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="42"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
+      <c r="M65" s="47"/>
       <c r="N65" s="55" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="51"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="52" t="s">
+      <c r="A66" s="52"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="53" t="s">
         <v>39</v>
       </c>
       <c r="D66" s="53"/>
@@ -6025,12 +8820,12 @@
       <c r="J66" s="53"/>
       <c r="K66" s="53"/>
       <c r="L66" s="53"/>
-      <c r="M66" s="42"/>
-      <c r="N66" s="56"/>
+      <c r="M66" s="47"/>
+      <c r="N66" s="55"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="51"/>
-      <c r="B67" s="42"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="47"/>
       <c r="C67" s="53"/>
       <c r="D67" s="53"/>
       <c r="E67" s="53"/>
@@ -6041,12 +8836,12 @@
       <c r="J67" s="53"/>
       <c r="K67" s="53"/>
       <c r="L67" s="53"/>
-      <c r="M67" s="42"/>
-      <c r="N67" s="56"/>
+      <c r="M67" s="47"/>
+      <c r="N67" s="55"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="51"/>
-      <c r="B68" s="42"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="53"/>
       <c r="D68" s="53"/>
       <c r="E68" s="53"/>
@@ -6057,36 +8852,36 @@
       <c r="J68" s="53"/>
       <c r="K68" s="53"/>
       <c r="L68" s="53"/>
-      <c r="M68" s="42"/>
-      <c r="N68" s="56"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="55"/>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="49">
+      <c r="A69" s="51">
         <f>A65+1</f>
         <v>15</v>
       </c>
-      <c r="B69" s="47"/>
-      <c r="C69" s="50" t="s">
+      <c r="B69" s="50"/>
+      <c r="C69" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
-      <c r="L69" s="42"/>
-      <c r="M69" s="42"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
       <c r="N69" s="55" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="51"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="52" t="s">
+      <c r="A70" s="52"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="53" t="s">
         <v>41</v>
       </c>
       <c r="D70" s="53"/>
@@ -6098,12 +8893,12 @@
       <c r="J70" s="53"/>
       <c r="K70" s="53"/>
       <c r="L70" s="53"/>
-      <c r="M70" s="42"/>
-      <c r="N70" s="56"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="55"/>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="51"/>
-      <c r="B71" s="47"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="50"/>
       <c r="C71" s="53"/>
       <c r="D71" s="53"/>
       <c r="E71" s="53"/>
@@ -6114,12 +8909,12 @@
       <c r="J71" s="53"/>
       <c r="K71" s="53"/>
       <c r="L71" s="53"/>
-      <c r="M71" s="42"/>
-      <c r="N71" s="56"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="55"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="51"/>
-      <c r="B72" s="47"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="50"/>
       <c r="C72" s="53"/>
       <c r="D72" s="53"/>
       <c r="E72" s="53"/>
@@ -6130,36 +8925,36 @@
       <c r="J72" s="53"/>
       <c r="K72" s="53"/>
       <c r="L72" s="53"/>
-      <c r="M72" s="42"/>
-      <c r="N72" s="56"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="55"/>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="49">
+      <c r="A73" s="51">
         <f>A69+1</f>
         <v>16</v>
       </c>
-      <c r="B73" s="42"/>
-      <c r="C73" s="50" t="s">
+      <c r="B73" s="47"/>
+      <c r="C73" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
-      <c r="L73" s="42"/>
-      <c r="M73" s="42"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="47"/>
       <c r="N73" s="55" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="51"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="52" t="s">
+      <c r="A74" s="52"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="53" t="s">
         <v>43</v>
       </c>
       <c r="D74" s="53"/>
@@ -6171,12 +8966,12 @@
       <c r="J74" s="53"/>
       <c r="K74" s="53"/>
       <c r="L74" s="53"/>
-      <c r="M74" s="42"/>
-      <c r="N74" s="56"/>
+      <c r="M74" s="47"/>
+      <c r="N74" s="55"/>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="51"/>
-      <c r="B75" s="42"/>
+      <c r="A75" s="52"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="53"/>
       <c r="D75" s="53"/>
       <c r="E75" s="53"/>
@@ -6187,12 +8982,12 @@
       <c r="J75" s="53"/>
       <c r="K75" s="53"/>
       <c r="L75" s="53"/>
-      <c r="M75" s="42"/>
-      <c r="N75" s="56"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="55"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="51"/>
-      <c r="B76" s="42"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="47"/>
       <c r="C76" s="53"/>
       <c r="D76" s="53"/>
       <c r="E76" s="53"/>
@@ -6203,32 +8998,32 @@
       <c r="J76" s="53"/>
       <c r="K76" s="53"/>
       <c r="L76" s="53"/>
-      <c r="M76" s="42"/>
-      <c r="N76" s="56"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="55"/>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="49">
+      <c r="A77" s="51">
         <f>A73+1</f>
         <v>17</v>
       </c>
-      <c r="B77" s="42"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="42"/>
-      <c r="K77" s="42"/>
-      <c r="L77" s="42"/>
-      <c r="M77" s="42"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="47"/>
       <c r="N77" s="55"/>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="51"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="54"/>
+      <c r="A78" s="52"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="53"/>
       <c r="D78" s="53"/>
       <c r="E78" s="53"/>
       <c r="F78" s="53"/>
@@ -6238,12 +9033,12 @@
       <c r="J78" s="53"/>
       <c r="K78" s="53"/>
       <c r="L78" s="53"/>
-      <c r="M78" s="42"/>
-      <c r="N78" s="56"/>
+      <c r="M78" s="47"/>
+      <c r="N78" s="55"/>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="51"/>
-      <c r="B79" s="42"/>
+      <c r="A79" s="52"/>
+      <c r="B79" s="47"/>
       <c r="C79" s="53"/>
       <c r="D79" s="53"/>
       <c r="E79" s="53"/>
@@ -6254,12 +9049,12 @@
       <c r="J79" s="53"/>
       <c r="K79" s="53"/>
       <c r="L79" s="53"/>
-      <c r="M79" s="42"/>
-      <c r="N79" s="56"/>
+      <c r="M79" s="47"/>
+      <c r="N79" s="55"/>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="51"/>
-      <c r="B80" s="42"/>
+      <c r="A80" s="52"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="53"/>
       <c r="D80" s="53"/>
       <c r="E80" s="53"/>
@@ -6270,31 +9065,31 @@
       <c r="J80" s="53"/>
       <c r="K80" s="53"/>
       <c r="L80" s="53"/>
-      <c r="M80" s="42"/>
-      <c r="N80" s="56"/>
+      <c r="M80" s="47"/>
+      <c r="N80" s="55"/>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="49">
+      <c r="A81" s="51">
         <f>A77+1</f>
         <v>18</v>
       </c>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
-      <c r="K81" s="42"/>
-      <c r="L81" s="42"/>
-      <c r="M81" s="42"/>
-      <c r="N81" s="47"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="47"/>
+      <c r="K81" s="47"/>
+      <c r="L81" s="47"/>
+      <c r="M81" s="47"/>
+      <c r="N81" s="50"/>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="51"/>
-      <c r="B82" s="42"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="47"/>
       <c r="C82" s="53"/>
       <c r="D82" s="53"/>
       <c r="E82" s="53"/>
@@ -6305,12 +9100,12 @@
       <c r="J82" s="53"/>
       <c r="K82" s="53"/>
       <c r="L82" s="53"/>
-      <c r="M82" s="42"/>
-      <c r="N82" s="47"/>
+      <c r="M82" s="47"/>
+      <c r="N82" s="50"/>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="51"/>
-      <c r="B83" s="42"/>
+      <c r="A83" s="52"/>
+      <c r="B83" s="47"/>
       <c r="C83" s="53"/>
       <c r="D83" s="53"/>
       <c r="E83" s="53"/>
@@ -6321,12 +9116,12 @@
       <c r="J83" s="53"/>
       <c r="K83" s="53"/>
       <c r="L83" s="53"/>
-      <c r="M83" s="42"/>
-      <c r="N83" s="47"/>
+      <c r="M83" s="47"/>
+      <c r="N83" s="50"/>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="51"/>
-      <c r="B84" s="42"/>
+      <c r="A84" s="52"/>
+      <c r="B84" s="47"/>
       <c r="C84" s="53"/>
       <c r="D84" s="53"/>
       <c r="E84" s="53"/>
@@ -6337,31 +9132,31 @@
       <c r="J84" s="53"/>
       <c r="K84" s="53"/>
       <c r="L84" s="53"/>
-      <c r="M84" s="42"/>
-      <c r="N84" s="47"/>
+      <c r="M84" s="47"/>
+      <c r="N84" s="50"/>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="49">
+      <c r="A85" s="51">
         <f>A81+1</f>
         <v>19</v>
       </c>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
-      <c r="K85" s="42"/>
-      <c r="L85" s="42"/>
-      <c r="M85" s="42"/>
-      <c r="N85" s="47"/>
+      <c r="B85" s="47"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="47"/>
+      <c r="I85" s="47"/>
+      <c r="J85" s="47"/>
+      <c r="K85" s="47"/>
+      <c r="L85" s="47"/>
+      <c r="M85" s="47"/>
+      <c r="N85" s="50"/>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="51"/>
-      <c r="B86" s="42"/>
+      <c r="A86" s="52"/>
+      <c r="B86" s="47"/>
       <c r="C86" s="53"/>
       <c r="D86" s="53"/>
       <c r="E86" s="53"/>
@@ -6372,12 +9167,12 @@
       <c r="J86" s="53"/>
       <c r="K86" s="53"/>
       <c r="L86" s="53"/>
-      <c r="M86" s="42"/>
-      <c r="N86" s="47"/>
+      <c r="M86" s="47"/>
+      <c r="N86" s="50"/>
     </row>
     <row r="87" spans="1:14">
-      <c r="A87" s="51"/>
-      <c r="B87" s="42"/>
+      <c r="A87" s="52"/>
+      <c r="B87" s="47"/>
       <c r="C87" s="53"/>
       <c r="D87" s="53"/>
       <c r="E87" s="53"/>
@@ -6388,12 +9183,12 @@
       <c r="J87" s="53"/>
       <c r="K87" s="53"/>
       <c r="L87" s="53"/>
-      <c r="M87" s="42"/>
-      <c r="N87" s="47"/>
+      <c r="M87" s="47"/>
+      <c r="N87" s="50"/>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="51"/>
-      <c r="B88" s="42"/>
+      <c r="A88" s="52"/>
+      <c r="B88" s="47"/>
       <c r="C88" s="53"/>
       <c r="D88" s="53"/>
       <c r="E88" s="53"/>
@@ -6404,31 +9199,31 @@
       <c r="J88" s="53"/>
       <c r="K88" s="53"/>
       <c r="L88" s="53"/>
-      <c r="M88" s="42"/>
-      <c r="N88" s="47"/>
+      <c r="M88" s="47"/>
+      <c r="N88" s="50"/>
     </row>
     <row r="89" spans="1:14">
-      <c r="A89" s="49">
+      <c r="A89" s="51">
         <f>A85+1</f>
         <v>20</v>
       </c>
-      <c r="B89" s="42"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="42"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="42"/>
-      <c r="H89" s="42"/>
-      <c r="I89" s="42"/>
-      <c r="J89" s="42"/>
-      <c r="K89" s="42"/>
-      <c r="L89" s="42"/>
-      <c r="M89" s="42"/>
-      <c r="N89" s="47"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="47"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="47"/>
+      <c r="L89" s="47"/>
+      <c r="M89" s="47"/>
+      <c r="N89" s="50"/>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="51"/>
-      <c r="B90" s="42"/>
+      <c r="A90" s="52"/>
+      <c r="B90" s="47"/>
       <c r="C90" s="53"/>
       <c r="D90" s="53"/>
       <c r="E90" s="53"/>
@@ -6439,12 +9234,12 @@
       <c r="J90" s="53"/>
       <c r="K90" s="53"/>
       <c r="L90" s="53"/>
-      <c r="M90" s="42"/>
-      <c r="N90" s="47"/>
+      <c r="M90" s="47"/>
+      <c r="N90" s="50"/>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="51"/>
-      <c r="B91" s="42"/>
+      <c r="A91" s="52"/>
+      <c r="B91" s="47"/>
       <c r="C91" s="53"/>
       <c r="D91" s="53"/>
       <c r="E91" s="53"/>
@@ -6455,12 +9250,12 @@
       <c r="J91" s="53"/>
       <c r="K91" s="53"/>
       <c r="L91" s="53"/>
-      <c r="M91" s="42"/>
-      <c r="N91" s="47"/>
+      <c r="M91" s="47"/>
+      <c r="N91" s="50"/>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="51"/>
-      <c r="B92" s="42"/>
+      <c r="A92" s="52"/>
+      <c r="B92" s="47"/>
       <c r="C92" s="53"/>
       <c r="D92" s="53"/>
       <c r="E92" s="53"/>
@@ -6471,8 +9266,8 @@
       <c r="J92" s="53"/>
       <c r="K92" s="53"/>
       <c r="L92" s="53"/>
-      <c r="M92" s="42"/>
-      <c r="N92" s="47"/>
+      <c r="M92" s="47"/>
+      <c r="N92" s="50"/>
     </row>
   </sheetData>
   <sheetProtection password="F05A" sheet="1" selectLockedCells="1" selectUnlockedCells="1" objects="1"/>
@@ -6547,6 +9342,111 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="7" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="5.33333333333333" style="40" customWidth="1"/>
+    <col min="2" max="2" width="16.6666666666667" style="40" customWidth="1"/>
+    <col min="3" max="3" width="88.6666666666667" style="40" customWidth="1"/>
+    <col min="4" max="4" width="89.5555555555556" style="40" customWidth="1"/>
+    <col min="5" max="16384" width="8.88888888888889" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" ht="38.4" spans="1:4">
+      <c r="A5" s="40">
+        <v>8</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" ht="25.2" spans="1:4">
+      <c r="A6" s="40">
+        <v>10</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" ht="25.2" spans="1:4">
+      <c r="A7" s="40">
+        <v>11</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" ht="38.4" spans="1:4">
+      <c r="A8" s="40">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection password="F05A" sheet="1" selectLockedCells="1" selectUnlockedCells="1" objects="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6564,16 +9464,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6581,13 +9481,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6595,13 +9495,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6609,13 +9509,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6623,13 +9523,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6637,13 +9537,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6651,13 +9551,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -6667,7 +9567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:K79"/>
@@ -6694,10 +9594,10 @@
     <row r="1" spans="1:11">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -6711,10 +9611,10 @@
     <row r="2" spans="1:11">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -6728,10 +9628,10 @@
     <row r="3" spans="1:11">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -6757,37 +9657,37 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6795,13 +9695,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E6" s="11">
         <v>11</v>
@@ -6811,7 +9711,7 @@
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -6822,13 +9722,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E7" s="14">
         <v>30</v>
@@ -6841,7 +9741,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="25" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6849,13 +9749,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E8" s="14">
         <v>255</v>
@@ -6868,7 +9768,7 @@
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="26" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6876,13 +9776,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E9" s="14">
         <v>128</v>
@@ -6895,7 +9795,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="25" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6903,13 +9803,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -6918,7 +9818,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="26" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6926,13 +9826,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E11" s="14">
         <v>100</v>
@@ -6943,7 +9843,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="27" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6951,13 +9851,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -6966,7 +9866,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="28" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6974,13 +9874,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E13" s="14">
         <v>100</v>
@@ -6991,7 +9891,7 @@
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="29" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6999,13 +9899,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E14" s="14">
         <v>30</v>
@@ -7016,7 +9916,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="29" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7024,13 +9924,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E15" s="17">
         <v>140</v>
@@ -7041,7 +9941,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="30" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7086,10 +9986,10 @@
     <row r="19" spans="1:11">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -7103,10 +10003,10 @@
     <row r="20" spans="1:11">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -7120,10 +10020,10 @@
     <row r="21" spans="1:11">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -7149,37 +10049,37 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -7187,13 +10087,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E24" s="11">
         <v>11</v>
@@ -7203,7 +10103,7 @@
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -7214,13 +10114,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E25" s="14">
         <v>50</v>
@@ -7233,7 +10133,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="25" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -7241,13 +10141,13 @@
         <v>3</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E26" s="14">
         <v>100</v>
@@ -7258,7 +10158,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="27" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -7266,13 +10166,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E27" s="14">
         <v>100</v>
@@ -7283,7 +10183,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
       <c r="K27" s="27" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -7291,13 +10191,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E28" s="14">
         <v>1000</v>
@@ -7308,7 +10208,7 @@
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="27" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -7316,13 +10216,13 @@
         <v>6</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -7331,7 +10231,7 @@
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="26" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -7339,13 +10239,13 @@
         <v>7</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E30" s="17">
         <v>1000</v>
@@ -7356,7 +10256,7 @@
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
       <c r="K30" s="31" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -7401,10 +10301,10 @@
     <row r="34" spans="1:11">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -7418,10 +10318,10 @@
     <row r="35" spans="1:11">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -7435,10 +10335,10 @@
     <row r="36" spans="1:11">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -7464,37 +10364,37 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K38" s="23" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -7502,13 +10402,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E39" s="11">
         <v>11</v>
@@ -7518,7 +10418,7 @@
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
@@ -7529,13 +10429,13 @@
         <v>2</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E40" s="14">
         <v>11</v>
@@ -7552,7 +10452,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="26" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -7560,13 +10460,13 @@
         <v>3</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E41" s="17">
         <v>11</v>
@@ -7583,7 +10483,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="32" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -7628,10 +10528,10 @@
     <row r="45" spans="1:11">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -7645,10 +10545,10 @@
     <row r="46" spans="1:11">
       <c r="A46" s="3"/>
       <c r="B46" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -7662,10 +10562,10 @@
     <row r="47" spans="1:11">
       <c r="A47" s="3"/>
       <c r="B47" s="4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -7691,37 +10591,37 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K49" s="23" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -7729,13 +10629,13 @@
         <v>1</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E50" s="11">
         <v>11</v>
@@ -7745,7 +10645,7 @@
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="11" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
@@ -7756,13 +10656,13 @@
         <v>2</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E51" s="14">
         <v>1000</v>
@@ -7775,7 +10675,7 @@
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
       <c r="K51" s="25" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -7783,13 +10683,13 @@
         <v>3</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E52" s="14">
         <v>11</v>
@@ -7812,13 +10712,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E53" s="14">
         <v>11</v>
@@ -7841,13 +10741,13 @@
         <v>5</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="17" t="b">
@@ -7860,7 +10760,7 @@
       <c r="I54" s="17"/>
       <c r="J54" s="17"/>
       <c r="K54" s="30" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -7905,10 +10805,10 @@
     <row r="58" spans="1:11">
       <c r="A58" s="3"/>
       <c r="B58" s="4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -7922,10 +10822,10 @@
     <row r="59" spans="1:11">
       <c r="A59" s="3"/>
       <c r="B59" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -7939,10 +10839,10 @@
     <row r="60" spans="1:11">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -7968,37 +10868,37 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K62" s="23" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -8006,13 +10906,13 @@
         <v>1</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E63" s="11">
         <v>11</v>
@@ -8022,7 +10922,7 @@
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="11" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
@@ -8033,13 +10933,13 @@
         <v>2</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E64" s="14">
         <v>11</v>
@@ -8056,7 +10956,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="25" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -8064,13 +10964,13 @@
         <v>3</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E65" s="17">
         <v>11</v>
@@ -8087,7 +10987,7 @@
         <v>1</v>
       </c>
       <c r="K65" s="34" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -8132,10 +11032,10 @@
     <row r="69" spans="1:11">
       <c r="A69" s="3"/>
       <c r="B69" s="4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -8149,10 +11049,10 @@
     <row r="70" spans="1:11">
       <c r="A70" s="3"/>
       <c r="B70" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -8166,10 +11066,10 @@
     <row r="71" spans="1:11">
       <c r="A71" s="3"/>
       <c r="B71" s="4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -8195,37 +11095,37 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K73" s="23" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -8233,13 +11133,13 @@
         <v>1</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E74" s="11">
         <v>11</v>
@@ -8249,7 +11149,7 @@
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="11" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
@@ -8260,13 +11160,13 @@
         <v>2</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E75" s="14">
         <v>11</v>
@@ -8283,7 +11183,7 @@
         <v>1</v>
       </c>
       <c r="K75" s="25" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -8291,13 +11191,13 @@
         <v>3</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E76" s="17">
         <v>11</v>
@@ -8314,7 +11214,7 @@
         <v>1</v>
       </c>
       <c r="K76" s="34" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -8363,13 +11263,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -8381,7 +11281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -8399,7 +11299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:P1"/>
@@ -8415,7 +11315,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:16">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>

--- a/requirement_definition.xlsx
+++ b/requirement_definition.xlsx
@@ -21,9 +21,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
-  <si>
-    <r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>カタログ</t>
     </r>
     <r>
@@ -47,6 +53,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>スポーツに関心のあるユーザーとスポーツ</t>
     </r>
     <r>
@@ -137,6 +149,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザー</t>
     </r>
     <r>
@@ -154,6 +172,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザー</t>
     </r>
     <r>
@@ -332,6 +356,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザーログイン</t>
     </r>
     <r>
@@ -346,6 +376,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>登録</t>
     </r>
     <r>
@@ -459,6 +495,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザープロフィール</t>
     </r>
     <r>
@@ -473,6 +515,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザー</t>
     </r>
     <r>
@@ -577,6 +625,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザーフォロー</t>
     </r>
     <r>
@@ -591,6 +645,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザーは</t>
     </r>
     <r>
@@ -623,6 +683,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザー</t>
     </r>
     <r>
@@ -637,6 +703,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザーは</t>
     </r>
     <r>
@@ -742,6 +814,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザー</t>
     </r>
     <r>
@@ -774,6 +852,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザー</t>
     </r>
     <r>
@@ -824,6 +908,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザーブログ</t>
     </r>
     <r>
@@ -841,6 +931,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザーは</t>
     </r>
     <r>
@@ -945,6 +1041,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザーによるチーム</t>
     </r>
     <r>
@@ -959,6 +1061,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザーは</t>
     </r>
     <r>
@@ -1226,6 +1334,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザーによるチームの</t>
     </r>
     <r>
@@ -1261,6 +1375,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザーは</t>
     </r>
     <r>
@@ -1365,6 +1485,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザーによるチーム</t>
     </r>
     <r>
@@ -1379,6 +1505,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザーは</t>
     </r>
     <r>
@@ -1520,6 +1652,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>チームプロフィール</t>
     </r>
     <r>
@@ -1537,6 +1675,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>チーム</t>
     </r>
     <r>
@@ -1551,6 +1695,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
       <t>チーム</t>
     </r>
     <r>
@@ -1871,6 +2021,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザーのチーム</t>
     </r>
     <r>
@@ -1885,6 +2041,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>チーム</t>
     </r>
     <r>
@@ -2097,6 +2259,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>チームのお</t>
     </r>
     <r>
@@ -2165,6 +2333,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>チームメンバー</t>
     </r>
     <r>
@@ -2269,6 +2443,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>チームブログ</t>
     </r>
     <r>
@@ -2283,6 +2463,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>チーム</t>
     </r>
     <r>
@@ -2423,6 +2609,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ブログお</t>
     </r>
     <r>
@@ -2473,6 +2665,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザーは</t>
     </r>
     <r>
@@ -2577,6 +2775,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
       <t>カタログ</t>
     </r>
     <r>
@@ -2667,6 +2872,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザーによる</t>
     </r>
     <r>
@@ -2700,6 +2911,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザーは</t>
     </r>
     <r>
@@ -2931,6 +3148,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザーは登録チームを検索することができる。スポーツの種目、活動地域等を条件に検索することができ、関心のあるチームが見つかった場合はその管理者にメッセージを送ることができる。</t>
     </r>
     <r>
@@ -2991,6 +3214,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザーは</t>
     </r>
     <r>
@@ -3258,6 +3487,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザーは</t>
     </r>
     <r>
@@ -3435,6 +3670,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>チーム</t>
     </r>
     <r>
@@ -3468,6 +3709,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>各</t>
     </r>
     <r>
@@ -3663,6 +3910,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>各</t>
     </r>
     <r>
@@ -3722,6 +3975,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>チーム</t>
     </r>
     <r>
@@ -3736,6 +3995,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>特定</t>
     </r>
     <r>
@@ -4057,6 +4322,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
       <t>チーム</t>
     </r>
     <r>
@@ -5332,6 +5603,15 @@
   </si>
   <si>
     <t>recipient_id</t>
+  </si>
+  <si>
+    <t>最新メッセージの作成日時</t>
+  </si>
+  <si>
+    <t>latest_message</t>
+  </si>
+  <si>
+    <t>datetime</t>
   </si>
   <si>
     <r>
@@ -5875,11 +6155,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5887,14 +6174,6 @@
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5912,8 +6191,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -5927,6 +6221,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -5935,9 +6244,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5951,69 +6291,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6065,7 +6345,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6077,174 +6519,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="26">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -6433,6 +6713,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
@@ -6493,6 +6812,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -6519,9 +6851,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6541,17 +6884,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6580,22 +6917,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6607,7 +6939,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6622,134 +6954,134 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6813,46 +7145,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6864,14 +7208,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -6897,7 +7238,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6976,42 +7317,108 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1905</xdr:colOff>
+      <xdr:colOff>2540</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:rowOff>2540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>416560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>139065</xdr:rowOff>
+      <xdr:rowOff>138430</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図形 2" descr="ER図_3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1905" y="1905"/>
-          <a:ext cx="10168255" cy="3489960"/>
+          <a:off x="2540" y="2540"/>
+          <a:ext cx="10167620" cy="3488690"/>
+          <a:chOff x="-8" y="-8"/>
+          <a:chExt cx="16012" cy="5494"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="図形 2" descr="ER図_3"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-8" y="-8"/>
+            <a:ext cx="16012" cy="5495"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="テキストボックス 1"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="40" y="3927"/>
+            <a:ext cx="1848" cy="331"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="800">
+                <a:latin typeface="Yu Gothic UI Semibold" panose="020B0700000000000000" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI Semibold" panose="020B0700000000000000" charset="-128"/>
+              </a:rPr>
+              <a:t>latest_message</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="Yu Gothic UI Semibold" panose="020B0700000000000000" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI Semibold" panose="020B0700000000000000" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7625,1649 +8032,1649 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="45"/>
+    <col min="1" max="16384" width="8.88888888888889" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="53"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="53"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="50"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="53"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="53"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="53"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="50"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="53"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="49" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="49" t="s">
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="52" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="50"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="50"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="53"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="51">
+      <c r="A13" s="54">
         <v>1</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="47" t="s">
+      <c r="B13" s="53"/>
+      <c r="C13" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="55" t="s">
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="58" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="52"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="53" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="58"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="52"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="55"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="58"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="52"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="55"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="58"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="51">
+      <c r="A17" s="54">
         <v>2</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="47" t="s">
+      <c r="B17" s="53"/>
+      <c r="C17" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="55" t="s">
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="58" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="52"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="53" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="55"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="58"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="52"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="55"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="58"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="52"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="55"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="58"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="51">
+      <c r="A21" s="54">
         <v>3</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="47" t="s">
+      <c r="B21" s="53"/>
+      <c r="C21" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="55" t="s">
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="58" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="52"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="53" t="s">
+      <c r="A22" s="55"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="55"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="58"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="52"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="55"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="58"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="52"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="55"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="58"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="51">
+      <c r="A25" s="54">
         <v>4</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="47" t="s">
+      <c r="B25" s="53"/>
+      <c r="C25" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="55" t="s">
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="58" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="52"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="53" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="55"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="58"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="52"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="55"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="58"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="52"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="55"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="58"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="51">
+      <c r="A29" s="54">
         <v>5</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="47" t="s">
+      <c r="B29" s="53"/>
+      <c r="C29" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="55" t="s">
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="58" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="52"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="53" t="s">
+      <c r="A30" s="55"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="55"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="58"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="52"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="55"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="58"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="52"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="55"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="58"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="51">
+      <c r="A33" s="54">
         <f>A29+1</f>
         <v>6</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47" t="s">
+      <c r="B33" s="50"/>
+      <c r="C33" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="55" t="s">
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="58" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="52"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="53" t="s">
+      <c r="A34" s="55"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="55"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="58"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="52"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="55"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="58"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="52"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="55"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="58"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="51">
+      <c r="A37" s="54">
         <f>A33+1</f>
         <v>7</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47" t="s">
+      <c r="B37" s="50"/>
+      <c r="C37" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="55" t="s">
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="58" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="52"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="53" t="s">
+      <c r="A38" s="55"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="55"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="58"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="52"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="55"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="58"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="52"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="55"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="58"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="51">
+      <c r="A41" s="54">
         <f>A37+1</f>
         <v>8</v>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47" t="s">
+      <c r="B41" s="50"/>
+      <c r="C41" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="55" t="s">
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="58" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="52"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="54" t="s">
+      <c r="A42" s="55"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="55"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="58"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="52"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="55"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="58"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="52"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="55"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="58"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="51">
+      <c r="A45" s="54">
         <f>A41+1</f>
         <v>9</v>
       </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47" t="s">
+      <c r="B45" s="50"/>
+      <c r="C45" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="55" t="s">
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="58" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="52"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="53" t="s">
+      <c r="A46" s="55"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="55"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="58"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="52"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="55"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="58"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="52"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="55"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="58"/>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="51">
+      <c r="A49" s="54">
         <f>A45+1</f>
         <v>10</v>
       </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47" t="s">
+      <c r="B49" s="50"/>
+      <c r="C49" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="55" t="s">
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="58" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="52"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="53" t="s">
+      <c r="A50" s="55"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="47"/>
-      <c r="N50" s="55"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="58"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="52"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="55"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="58"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="52"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="55"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="58"/>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="51">
+      <c r="A53" s="54">
         <f>A49+1</f>
         <v>11</v>
       </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="47" t="s">
+      <c r="B53" s="53"/>
+      <c r="C53" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="55" t="s">
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="58" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="52"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="53" t="s">
+      <c r="A54" s="55"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="55"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="50"/>
+      <c r="N54" s="58"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="52"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="55"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="58"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="52"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="47"/>
-      <c r="N56" s="55"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="58"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="51">
+      <c r="A57" s="54">
         <f>A53+1</f>
         <v>12</v>
       </c>
-      <c r="B57" s="50"/>
-      <c r="C57" s="47" t="s">
+      <c r="B57" s="53"/>
+      <c r="C57" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="47"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="55" t="s">
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="58" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="52"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="54" t="s">
+      <c r="A58" s="55"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="53"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="55"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="50"/>
+      <c r="N58" s="58"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="52"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="53"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="55"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="56"/>
+      <c r="M59" s="50"/>
+      <c r="N59" s="58"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="52"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="53"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="55"/>
+      <c r="A60" s="55"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="56"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="56"/>
+      <c r="M60" s="50"/>
+      <c r="N60" s="58"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="51">
+      <c r="A61" s="54">
         <f>A57+1</f>
         <v>13</v>
       </c>
-      <c r="B61" s="50"/>
-      <c r="C61" s="47" t="s">
+      <c r="B61" s="53"/>
+      <c r="C61" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="47"/>
-      <c r="M61" s="47"/>
-      <c r="N61" s="55" t="s">
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="50"/>
+      <c r="N61" s="58" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="52"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="53" t="s">
+      <c r="A62" s="55"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="53"/>
-      <c r="L62" s="53"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="55"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="56"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="50"/>
+      <c r="N62" s="58"/>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="52"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="47"/>
-      <c r="N63" s="55"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="56"/>
+      <c r="M63" s="50"/>
+      <c r="N63" s="58"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="52"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="53"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="55"/>
+      <c r="A64" s="55"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="50"/>
+      <c r="N64" s="58"/>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="51">
+      <c r="A65" s="54">
         <f>A61+1</f>
         <v>14</v>
       </c>
-      <c r="B65" s="50"/>
-      <c r="C65" s="47" t="s">
+      <c r="B65" s="53"/>
+      <c r="C65" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="55" t="s">
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="50"/>
+      <c r="M65" s="50"/>
+      <c r="N65" s="58" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="52"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="53" t="s">
+      <c r="A66" s="55"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="53"/>
-      <c r="L66" s="53"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="55"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="56"/>
+      <c r="M66" s="50"/>
+      <c r="N66" s="58"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="52"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="53"/>
-      <c r="K67" s="53"/>
-      <c r="L67" s="53"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="55"/>
+      <c r="A67" s="55"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="56"/>
+      <c r="M67" s="50"/>
+      <c r="N67" s="58"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="52"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="53"/>
-      <c r="K68" s="53"/>
-      <c r="L68" s="53"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="55"/>
+      <c r="A68" s="55"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="56"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="50"/>
+      <c r="N68" s="58"/>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="51">
+      <c r="A69" s="54">
         <f>A65+1</f>
         <v>15</v>
       </c>
-      <c r="B69" s="50"/>
-      <c r="C69" s="47" t="s">
+      <c r="B69" s="53"/>
+      <c r="C69" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="47"/>
-      <c r="K69" s="47"/>
-      <c r="L69" s="47"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="55" t="s">
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="50"/>
+      <c r="M69" s="50"/>
+      <c r="N69" s="58" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="52"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="53" t="s">
+      <c r="A70" s="55"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="53"/>
-      <c r="K70" s="53"/>
-      <c r="L70" s="53"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="55"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="50"/>
+      <c r="N70" s="58"/>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="52"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="53"/>
-      <c r="K71" s="53"/>
-      <c r="L71" s="53"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="55"/>
+      <c r="A71" s="55"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="56"/>
+      <c r="L71" s="56"/>
+      <c r="M71" s="50"/>
+      <c r="N71" s="58"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="52"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="53"/>
-      <c r="K72" s="53"/>
-      <c r="L72" s="53"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="55"/>
+      <c r="A72" s="55"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="56"/>
+      <c r="L72" s="56"/>
+      <c r="M72" s="50"/>
+      <c r="N72" s="58"/>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="51">
+      <c r="A73" s="54">
         <f>A69+1</f>
         <v>16</v>
       </c>
-      <c r="B73" s="47"/>
-      <c r="C73" s="47" t="s">
+      <c r="B73" s="50"/>
+      <c r="C73" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="47"/>
-      <c r="G73" s="47"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="47"/>
-      <c r="J73" s="47"/>
-      <c r="K73" s="47"/>
-      <c r="L73" s="47"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="55" t="s">
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="50"/>
+      <c r="N73" s="58" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="52"/>
-      <c r="B74" s="47"/>
-      <c r="C74" s="53" t="s">
+      <c r="A74" s="55"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D74" s="53"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="53"/>
-      <c r="K74" s="53"/>
-      <c r="L74" s="53"/>
-      <c r="M74" s="47"/>
-      <c r="N74" s="55"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="56"/>
+      <c r="L74" s="56"/>
+      <c r="M74" s="50"/>
+      <c r="N74" s="58"/>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="52"/>
-      <c r="B75" s="47"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="53"/>
-      <c r="I75" s="53"/>
-      <c r="J75" s="53"/>
-      <c r="K75" s="53"/>
-      <c r="L75" s="53"/>
-      <c r="M75" s="47"/>
-      <c r="N75" s="55"/>
+      <c r="A75" s="55"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="56"/>
+      <c r="L75" s="56"/>
+      <c r="M75" s="50"/>
+      <c r="N75" s="58"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="52"/>
-      <c r="B76" s="47"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="53"/>
-      <c r="M76" s="47"/>
-      <c r="N76" s="55"/>
+      <c r="A76" s="55"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="50"/>
+      <c r="N76" s="58"/>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="51">
+      <c r="A77" s="54">
         <f>A73+1</f>
         <v>17</v>
       </c>
-      <c r="B77" s="47"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
-      <c r="H77" s="47"/>
-      <c r="I77" s="47"/>
-      <c r="J77" s="47"/>
-      <c r="K77" s="47"/>
-      <c r="L77" s="47"/>
-      <c r="M77" s="47"/>
-      <c r="N77" s="55"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="50"/>
+      <c r="M77" s="50"/>
+      <c r="N77" s="58"/>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="52"/>
-      <c r="B78" s="47"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="53"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="53"/>
-      <c r="K78" s="53"/>
-      <c r="L78" s="53"/>
-      <c r="M78" s="47"/>
-      <c r="N78" s="55"/>
+      <c r="A78" s="55"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="56"/>
+      <c r="J78" s="56"/>
+      <c r="K78" s="56"/>
+      <c r="L78" s="56"/>
+      <c r="M78" s="50"/>
+      <c r="N78" s="58"/>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="52"/>
-      <c r="B79" s="47"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="53"/>
-      <c r="H79" s="53"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="53"/>
-      <c r="K79" s="53"/>
-      <c r="L79" s="53"/>
-      <c r="M79" s="47"/>
-      <c r="N79" s="55"/>
+      <c r="A79" s="55"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="56"/>
+      <c r="K79" s="56"/>
+      <c r="L79" s="56"/>
+      <c r="M79" s="50"/>
+      <c r="N79" s="58"/>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="52"/>
-      <c r="B80" s="47"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="53"/>
-      <c r="L80" s="53"/>
-      <c r="M80" s="47"/>
-      <c r="N80" s="55"/>
+      <c r="A80" s="55"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="56"/>
+      <c r="M80" s="50"/>
+      <c r="N80" s="58"/>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="51">
+      <c r="A81" s="54">
         <f>A77+1</f>
         <v>18</v>
       </c>
-      <c r="B81" s="47"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="47"/>
-      <c r="H81" s="47"/>
-      <c r="I81" s="47"/>
-      <c r="J81" s="47"/>
-      <c r="K81" s="47"/>
-      <c r="L81" s="47"/>
-      <c r="M81" s="47"/>
-      <c r="N81" s="50"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="50"/>
+      <c r="L81" s="50"/>
+      <c r="M81" s="50"/>
+      <c r="N81" s="53"/>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="52"/>
-      <c r="B82" s="47"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="53"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="53"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="53"/>
-      <c r="K82" s="53"/>
-      <c r="L82" s="53"/>
-      <c r="M82" s="47"/>
-      <c r="N82" s="50"/>
+      <c r="A82" s="55"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="56"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="56"/>
+      <c r="L82" s="56"/>
+      <c r="M82" s="50"/>
+      <c r="N82" s="53"/>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="52"/>
-      <c r="B83" s="47"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="53"/>
-      <c r="E83" s="53"/>
-      <c r="F83" s="53"/>
-      <c r="G83" s="53"/>
-      <c r="H83" s="53"/>
-      <c r="I83" s="53"/>
-      <c r="J83" s="53"/>
-      <c r="K83" s="53"/>
-      <c r="L83" s="53"/>
-      <c r="M83" s="47"/>
-      <c r="N83" s="50"/>
+      <c r="A83" s="55"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="56"/>
+      <c r="K83" s="56"/>
+      <c r="L83" s="56"/>
+      <c r="M83" s="50"/>
+      <c r="N83" s="53"/>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="52"/>
-      <c r="B84" s="47"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="53"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="53"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="53"/>
-      <c r="K84" s="53"/>
-      <c r="L84" s="53"/>
-      <c r="M84" s="47"/>
-      <c r="N84" s="50"/>
+      <c r="A84" s="55"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="56"/>
+      <c r="I84" s="56"/>
+      <c r="J84" s="56"/>
+      <c r="K84" s="56"/>
+      <c r="L84" s="56"/>
+      <c r="M84" s="50"/>
+      <c r="N84" s="53"/>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="51">
+      <c r="A85" s="54">
         <f>A81+1</f>
         <v>19</v>
       </c>
-      <c r="B85" s="47"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="47"/>
-      <c r="I85" s="47"/>
-      <c r="J85" s="47"/>
-      <c r="K85" s="47"/>
-      <c r="L85" s="47"/>
-      <c r="M85" s="47"/>
-      <c r="N85" s="50"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="50"/>
+      <c r="E85" s="50"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="50"/>
+      <c r="J85" s="50"/>
+      <c r="K85" s="50"/>
+      <c r="L85" s="50"/>
+      <c r="M85" s="50"/>
+      <c r="N85" s="53"/>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="52"/>
-      <c r="B86" s="47"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="53"/>
-      <c r="E86" s="53"/>
-      <c r="F86" s="53"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="53"/>
-      <c r="K86" s="53"/>
-      <c r="L86" s="53"/>
-      <c r="M86" s="47"/>
-      <c r="N86" s="50"/>
+      <c r="A86" s="55"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="56"/>
+      <c r="K86" s="56"/>
+      <c r="L86" s="56"/>
+      <c r="M86" s="50"/>
+      <c r="N86" s="53"/>
     </row>
     <row r="87" spans="1:14">
-      <c r="A87" s="52"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="53"/>
-      <c r="F87" s="53"/>
-      <c r="G87" s="53"/>
-      <c r="H87" s="53"/>
-      <c r="I87" s="53"/>
-      <c r="J87" s="53"/>
-      <c r="K87" s="53"/>
-      <c r="L87" s="53"/>
-      <c r="M87" s="47"/>
-      <c r="N87" s="50"/>
+      <c r="A87" s="55"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="56"/>
+      <c r="K87" s="56"/>
+      <c r="L87" s="56"/>
+      <c r="M87" s="50"/>
+      <c r="N87" s="53"/>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="52"/>
-      <c r="B88" s="47"/>
-      <c r="C88" s="53"/>
-      <c r="D88" s="53"/>
-      <c r="E88" s="53"/>
-      <c r="F88" s="53"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="53"/>
-      <c r="K88" s="53"/>
-      <c r="L88" s="53"/>
-      <c r="M88" s="47"/>
-      <c r="N88" s="50"/>
+      <c r="A88" s="55"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="56"/>
+      <c r="J88" s="56"/>
+      <c r="K88" s="56"/>
+      <c r="L88" s="56"/>
+      <c r="M88" s="50"/>
+      <c r="N88" s="53"/>
     </row>
     <row r="89" spans="1:14">
-      <c r="A89" s="51">
+      <c r="A89" s="54">
         <f>A85+1</f>
         <v>20</v>
       </c>
-      <c r="B89" s="47"/>
-      <c r="C89" s="47"/>
-      <c r="D89" s="47"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="47"/>
-      <c r="H89" s="47"/>
-      <c r="I89" s="47"/>
-      <c r="J89" s="47"/>
-      <c r="K89" s="47"/>
-      <c r="L89" s="47"/>
-      <c r="M89" s="47"/>
-      <c r="N89" s="50"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="50"/>
+      <c r="J89" s="50"/>
+      <c r="K89" s="50"/>
+      <c r="L89" s="50"/>
+      <c r="M89" s="50"/>
+      <c r="N89" s="53"/>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="52"/>
-      <c r="B90" s="47"/>
-      <c r="C90" s="53"/>
-      <c r="D90" s="53"/>
-      <c r="E90" s="53"/>
-      <c r="F90" s="53"/>
-      <c r="G90" s="53"/>
-      <c r="H90" s="53"/>
-      <c r="I90" s="53"/>
-      <c r="J90" s="53"/>
-      <c r="K90" s="53"/>
-      <c r="L90" s="53"/>
-      <c r="M90" s="47"/>
-      <c r="N90" s="50"/>
+      <c r="A90" s="55"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="56"/>
+      <c r="J90" s="56"/>
+      <c r="K90" s="56"/>
+      <c r="L90" s="56"/>
+      <c r="M90" s="50"/>
+      <c r="N90" s="53"/>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="52"/>
-      <c r="B91" s="47"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="53"/>
-      <c r="F91" s="53"/>
-      <c r="G91" s="53"/>
-      <c r="H91" s="53"/>
-      <c r="I91" s="53"/>
-      <c r="J91" s="53"/>
-      <c r="K91" s="53"/>
-      <c r="L91" s="53"/>
-      <c r="M91" s="47"/>
-      <c r="N91" s="50"/>
+      <c r="A91" s="55"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="56"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="56"/>
+      <c r="I91" s="56"/>
+      <c r="J91" s="56"/>
+      <c r="K91" s="56"/>
+      <c r="L91" s="56"/>
+      <c r="M91" s="50"/>
+      <c r="N91" s="53"/>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="52"/>
-      <c r="B92" s="47"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="53"/>
-      <c r="G92" s="53"/>
-      <c r="H92" s="53"/>
-      <c r="I92" s="53"/>
-      <c r="J92" s="53"/>
-      <c r="K92" s="53"/>
-      <c r="L92" s="53"/>
-      <c r="M92" s="47"/>
-      <c r="N92" s="50"/>
+      <c r="A92" s="55"/>
+      <c r="B92" s="50"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="56"/>
+      <c r="I92" s="56"/>
+      <c r="J92" s="56"/>
+      <c r="K92" s="56"/>
+      <c r="L92" s="56"/>
+      <c r="M92" s="50"/>
+      <c r="N92" s="53"/>
     </row>
   </sheetData>
   <sheetProtection password="F05A" sheet="1" selectLockedCells="1" selectUnlockedCells="1" objects="1"/>
@@ -9350,25 +9757,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="5.33333333333333" style="40" customWidth="1"/>
-    <col min="2" max="2" width="16.6666666666667" style="40" customWidth="1"/>
-    <col min="3" max="3" width="88.6666666666667" style="40" customWidth="1"/>
-    <col min="4" max="4" width="89.5555555555556" style="40" customWidth="1"/>
-    <col min="5" max="16384" width="8.88888888888889" style="40"/>
+    <col min="1" max="1" width="5.33333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="88.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="89.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="44" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="45" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -9382,58 +9789,58 @@
       </c>
     </row>
     <row r="5" ht="38.4" spans="1:4">
-      <c r="A5" s="40">
+      <c r="A5" s="1">
         <v>8</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="46" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" ht="25.2" spans="1:4">
-      <c r="A6" s="40">
+      <c r="A6" s="1">
         <v>10</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="46" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" ht="25.2" spans="1:4">
-      <c r="A7" s="40">
+      <c r="A7" s="1">
         <v>11</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="46" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" ht="38.4" spans="1:4">
-      <c r="A8" s="40">
+      <c r="A8" s="1">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="47" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9463,16 +9870,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="42" t="s">
         <v>63</v>
       </c>
     </row>
@@ -9486,7 +9893,7 @@
       <c r="C2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9500,7 +9907,7 @@
       <c r="C3" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="30" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9514,7 +9921,7 @@
       <c r="C4" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="30" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9528,7 +9935,7 @@
       <c r="C5" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="30" t="s">
         <v>75</v>
       </c>
     </row>
@@ -9542,7 +9949,7 @@
       <c r="C6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="29" t="s">
         <v>78</v>
       </c>
     </row>
@@ -9556,7 +9963,7 @@
       <c r="C7" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="36" t="s">
         <v>81</v>
       </c>
     </row>
@@ -9570,7 +9977,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9686,7 +10093,7 @@
       <c r="J5" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="26" t="s">
         <v>63</v>
       </c>
     </row>
@@ -9715,7 +10122,7 @@
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="24"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="12">
@@ -9740,7 +10147,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="28" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9767,7 +10174,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="29" t="s">
         <v>104</v>
       </c>
     </row>
@@ -9794,7 +10201,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="28" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9817,7 +10224,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="29" t="s">
         <v>110</v>
       </c>
     </row>
@@ -9842,7 +10249,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="30" t="s">
         <v>113</v>
       </c>
     </row>
@@ -9865,7 +10272,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="31" t="s">
         <v>116</v>
       </c>
     </row>
@@ -9890,7 +10297,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="32" t="s">
         <v>113</v>
       </c>
     </row>
@@ -9915,7 +10322,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="32" t="s">
         <v>121</v>
       </c>
     </row>
@@ -9940,7 +10347,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="30" t="s">
+      <c r="K15" s="33" t="s">
         <v>125</v>
       </c>
     </row>
@@ -10078,7 +10485,7 @@
       <c r="J23" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K23" s="23" t="s">
+      <c r="K23" s="26" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10107,7 +10514,7 @@
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="24"/>
+      <c r="K24" s="27"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="12">
@@ -10132,7 +10539,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="25" t="s">
+      <c r="K25" s="28" t="s">
         <v>128</v>
       </c>
     </row>
@@ -10157,7 +10564,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
-      <c r="K26" s="27" t="s">
+      <c r="K26" s="30" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10182,7 +10589,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
-      <c r="K27" s="27" t="s">
+      <c r="K27" s="30" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10207,7 +10614,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
-      <c r="K28" s="27" t="s">
+      <c r="K28" s="30" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10230,7 +10637,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
-      <c r="K29" s="26" t="s">
+      <c r="K29" s="29" t="s">
         <v>110</v>
       </c>
     </row>
@@ -10255,7 +10662,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
-      <c r="K30" s="31" t="s">
+      <c r="K30" s="34" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10393,7 +10800,7 @@
       <c r="J38" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K38" s="23" t="s">
+      <c r="K38" s="26" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10422,7 +10829,7 @@
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="24"/>
+      <c r="K39" s="27"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="12">
@@ -10451,53 +10858,61 @@
       <c r="J40" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="K40" s="26" t="s">
+      <c r="K40" s="29" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="15">
+      <c r="A41" s="21">
         <v>3</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="23">
         <v>11</v>
       </c>
-      <c r="F41" s="17" t="b">
+      <c r="F41" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17" t="b">
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="J41" s="17" t="b">
+      <c r="J41" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="K41" s="32" t="s">
+      <c r="K41" s="35" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
+      <c r="A42" s="15">
+        <v>4</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="36"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="3"/>
@@ -10527,12 +10942,8 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="3"/>
-      <c r="B45" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>73</v>
-      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -10545,10 +10956,10 @@
     <row r="46" spans="1:11">
       <c r="A46" s="3"/>
       <c r="B46" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>74</v>
+        <v>82</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -10562,10 +10973,10 @@
     <row r="47" spans="1:11">
       <c r="A47" s="3"/>
       <c r="B47" s="4" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -10578,8 +10989,12 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="B48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -10590,97 +11005,83 @@
       <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B50" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D50" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E50" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F50" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G50" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H50" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="I50" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J50" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K49" s="23" t="s">
+      <c r="K50" s="26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="9">
+    <row r="51" spans="1:11">
+      <c r="A51" s="9">
         <v>1</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B51" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D51" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E51" s="11">
         <v>11</v>
       </c>
-      <c r="F50" s="11" t="b">
+      <c r="F51" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11" t="s">
+      <c r="G51" s="11"/>
+      <c r="H51" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="24"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="12">
-        <v>2</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" s="14">
-        <v>1000</v>
-      </c>
-      <c r="F51" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="25" t="s">
-        <v>146</v>
-      </c>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="27"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>147</v>
@@ -10689,36 +11090,34 @@
         <v>148</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="E52" s="14">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="F52" s="14" t="b">
         <v>0</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
-      <c r="I52" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K52" s="25"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="28" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="12">
-        <v>4</v>
-      </c>
-      <c r="B53" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>150</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>151</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E53" s="14">
         <v>11</v>
@@ -10734,47 +11133,63 @@
       <c r="J53" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="K53" s="25"/>
+      <c r="K53" s="28"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="15">
+      <c r="A54" s="12">
+        <v>4</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="14">
+        <v>11</v>
+      </c>
+      <c r="F54" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K54" s="28"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="15">
         <v>5</v>
       </c>
-      <c r="B54" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17" t="b">
+      <c r="B55" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="G54" s="17" t="b">
+      <c r="G55" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="33" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="3"/>
@@ -10804,12 +11219,8 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="3"/>
-      <c r="B58" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>156</v>
-      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -10822,10 +11233,10 @@
     <row r="59" spans="1:11">
       <c r="A59" s="3"/>
       <c r="B59" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -10839,10 +11250,10 @@
     <row r="60" spans="1:11">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -10855,8 +11266,12 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="B61" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -10867,141 +11282,141 @@
       <c r="K61" s="3"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B63" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D63" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E63" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F63" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G63" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H62" s="8" t="s">
+      <c r="H63" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I62" s="8" t="s">
+      <c r="I63" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="J62" s="8" t="s">
+      <c r="J63" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K62" s="23" t="s">
+      <c r="K63" s="26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="9">
+    <row r="64" spans="1:11">
+      <c r="A64" s="9">
         <v>1</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B64" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D64" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E64" s="11">
         <v>11</v>
       </c>
-      <c r="F63" s="11" t="b">
+      <c r="F64" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11" t="s">
+      <c r="G64" s="11"/>
+      <c r="H64" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="24"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="12">
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="27"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="12">
         <v>2</v>
       </c>
-      <c r="B64" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D64" s="14" t="s">
+      <c r="B65" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D65" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E65" s="14">
         <v>11</v>
       </c>
-      <c r="F64" s="14" t="b">
+      <c r="F65" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14" t="b">
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J64" s="14" t="b">
+      <c r="J65" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="K64" s="25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="15">
+      <c r="K65" s="28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="15">
         <v>3</v>
       </c>
-      <c r="B65" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="D65" s="17" t="s">
+      <c r="B66" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E66" s="17">
         <v>11</v>
       </c>
-      <c r="F65" s="17" t="b">
+      <c r="F66" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17" t="b">
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="J65" s="17" t="b">
+      <c r="J66" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="K65" s="34" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
+      <c r="K66" s="38" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="3"/>
@@ -11031,12 +11446,8 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="3"/>
-      <c r="B69" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -11049,10 +11460,10 @@
     <row r="70" spans="1:11">
       <c r="A70" s="3"/>
       <c r="B70" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -11066,10 +11477,10 @@
     <row r="71" spans="1:11">
       <c r="A71" s="3"/>
       <c r="B71" s="4" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -11082,8 +11493,12 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+      <c r="B72" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -11094,141 +11509,141 @@
       <c r="K72" s="3"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B74" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D74" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E74" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F74" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G73" s="8" t="s">
+      <c r="G74" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="H74" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I73" s="8" t="s">
+      <c r="I74" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="J73" s="8" t="s">
+      <c r="J74" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K73" s="23" t="s">
+      <c r="K74" s="26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="9">
+    <row r="75" spans="1:11">
+      <c r="A75" s="9">
         <v>1</v>
       </c>
-      <c r="B74" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="C74" s="11" t="s">
+      <c r="B75" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D75" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="11">
         <v>11</v>
       </c>
-      <c r="F74" s="11" t="b">
+      <c r="F75" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11" t="s">
+      <c r="G75" s="11"/>
+      <c r="H75" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="24"/>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="12">
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="27"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="12">
         <v>2</v>
       </c>
-      <c r="B75" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E75" s="14">
+      <c r="B76" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E76" s="14">
         <v>11</v>
       </c>
-      <c r="F75" s="14" t="b">
+      <c r="F76" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14" t="b">
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J75" s="14" t="b">
+      <c r="J76" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="K75" s="25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="15">
+      <c r="K76" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="15">
         <v>3</v>
       </c>
-      <c r="B76" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E76" s="17">
+      <c r="B77" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E77" s="17">
         <v>11</v>
       </c>
-      <c r="F76" s="17" t="b">
+      <c r="F77" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17" t="b">
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="J76" s="17" t="b">
+      <c r="J77" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="K76" s="34" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
+      <c r="K77" s="38" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="3"/>
@@ -11255,6 +11670,19 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
     </row>
   </sheetData>
   <sheetProtection password="F05A" sheet="1" selectLockedCells="1" selectUnlockedCells="1" objects="1"/>
@@ -11269,7 +11697,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -11287,7 +11715,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -11315,7 +11743,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:16">
       <c r="A1" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
